--- a/publipostage2/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
+++ b/publipostage2/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
+++ b/publipostage2/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT01964456</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>"Narcisse &amp; Echo : Self-consciousness and the Inter-subjective Body"</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Narcisse</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -556,36 +566,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT02476188</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Neutrophil Extracellular Traps and Thrombolysis in the Acute Stroke</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>NETs</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -604,36 +619,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT01437527</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Body Image Therapy in Anorexia Nervosa</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>PIPA</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -652,36 +672,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT02602951</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>4D FLOW: Feasibility Study of a Sequence 4D of Flow Applied to the Cervico-encephalic Vascular Pathologies</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>4D-FLOW</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -700,36 +725,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT03084848</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cerebral Bases of the Cognitive Learning in the Executive Control In the Adolescence</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>APEX-ADO</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -748,36 +778,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT04008719</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Predictivity of Attention Test and Executive Functions After Stroke to Predict Depression 3 Months After Stroke.</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>ATTEST-Depress</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -796,36 +831,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT03475225</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Effect of the Treatment of Vitamin D Deficiency in Drug-resistant Epilepsy</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>EPI-D</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -844,36 +884,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT03934073</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Evaluation of the Benefit of the Training of the Manual Dexterity Post-stroke: Effect on the Function and Spontaneous Use of the Hand and the Cerebral Plasticity</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>DEXTRAIN</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -892,28 +937,30 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT04350580</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Value of Early Treatment With Polyvalent Immunoglobulin in the Management of Acute Respiratory Distress Syndrome Associated With SARS-CoV-2 Infections</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>ICAR</t>
         </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -921,7 +968,10 @@
       <c r="K10" t="b">
         <v>1</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -940,36 +990,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT02841098</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>" Endarterectomy Combined With Optimal Medical Therapy Versus Optimal Medical Therapy Alone in Patients With Asymptomatic Severe Atherosclerotic Carotid Artery Stenosis at Higher-than-average Risk of Ipsilateral Stroke "</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>ACTRIS</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -988,36 +1043,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT02476435</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Depersonalization Disorder: Therapeutic Effect of Neuronavigated Repetitive Transcranial Stimulation of Right Angular Gyrus.</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>PERSONA</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1036,36 +1096,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT02235012</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Cognitive Biases in Decision Making in a Pharmacological Model of Psychosis : a Study in Healthy Humans Recieving Low Dose Anesthetic, Ketamine Versus Placebo</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>KETABI</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1084,36 +1149,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT02576821</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Hippocampal Sclerosis and Amnesia Not Due to Alzheimer's Disease</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>ShaTau7</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -1132,36 +1202,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT06658392</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Domain-general and Domain-specific Contributions to the Development of Numerical Cognition</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>CFDDCN</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1178,36 +1253,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2017-001019-35</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Effect of vitamin D deficiency compensation in the treatment of drug-resistant epilepsy. 
  Effet de la compensation du déficit en vitamine D dans le traitement de l'épilepsie pharmaco-résistante.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Epi-D 
  Epi-D</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
+++ b/publipostage2/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
@@ -55,13 +55,13 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>vert</t>

--- a/publipostage2/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
+++ b/publipostage2/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
@@ -55,10 +55,10 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
+++ b/publipostage2/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
@@ -61,16 +61,16 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT01964456</t>

--- a/publipostage2/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
+++ b/publipostage2/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
   <si>
     <t>statut</t>
   </si>
   <si>
-    <t>statut_label</t>
-  </si>
-  <si>
     <t>statut_name</t>
   </si>
   <si>
@@ -43,34 +40,19 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>results_1y</t>
-  </si>
-  <si>
-    <t>results_3y</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⚠️</t>
-  </si>
-  <si>
-    <t>✅</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
-    <t>vert</t>
-  </si>
-  <si>
-    <t>pas de résultat postés ni publiés</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 12 mois</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4: pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>1: résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT01964456</t>
@@ -610,13 +592,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,536 +626,344 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
+      <c r="F4" t="s">
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G15" t="s">
         <v>50</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H15" t="s">
         <v>65</v>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G16" t="s">
         <v>51</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H16" t="s">
         <v>66</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
+++ b/publipostage2/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
@@ -76,21 +76,21 @@
     <t>NCT03475225</t>
   </si>
   <si>
+    <t>NCT04350580</t>
+  </si>
+  <si>
     <t>NCT03934073</t>
   </si>
   <si>
-    <t>NCT04350580</t>
+    <t>NCT02476435</t>
+  </si>
+  <si>
+    <t>NCT02235012</t>
   </si>
   <si>
     <t>NCT02841098</t>
   </si>
   <si>
-    <t>NCT02476435</t>
-  </si>
-  <si>
-    <t>NCT02235012</t>
-  </si>
-  <si>
     <t>NCT02576821</t>
   </si>
   <si>
@@ -148,19 +148,19 @@
     <t>Effect of the Treatment of Vitamin D Deficiency in Drug-resistant Epilepsy</t>
   </si>
   <si>
+    <t>Value of Early Treatment With Polyvalent Immunoglobulin in the Management of Acute Respiratory Distress Syndrome Associated With SARS-CoV-2 Infections</t>
+  </si>
+  <si>
     <t>Evaluation of the Benefit of the Training of the Manual Dexterity Post-stroke: Effect on the Function and Spontaneous Use of the Hand and the Cerebral Plasticity</t>
   </si>
   <si>
-    <t>Value of Early Treatment With Polyvalent Immunoglobulin in the Management of Acute Respiratory Distress Syndrome Associated With SARS-CoV-2 Infections</t>
+    <t>Depersonalization Disorder: Therapeutic Effect of Neuronavigated Repetitive Transcranial Stimulation of Right Angular Gyrus.</t>
+  </si>
+  <si>
+    <t>Cognitive Biases in Decision Making in a Pharmacological Model of Psychosis : a Study in Healthy Humans Recieving Low Dose Anesthetic, Ketamine Versus Placebo</t>
   </si>
   <si>
     <t>" Endarterectomy Combined With Optimal Medical Therapy Versus Optimal Medical Therapy Alone in Patients With Asymptomatic Severe Atherosclerotic Carotid Artery Stenosis at Higher-than-average Risk of Ipsilateral Stroke "</t>
-  </si>
-  <si>
-    <t>Depersonalization Disorder: Therapeutic Effect of Neuronavigated Repetitive Transcranial Stimulation of Right Angular Gyrus.</t>
-  </si>
-  <si>
-    <t>Cognitive Biases in Decision Making in a Pharmacological Model of Psychosis : a Study in Healthy Humans Recieving Low Dose Anesthetic, Ketamine Versus Placebo</t>
   </si>
   <si>
     <t>Hippocampal Sclerosis and Amnesia Not Due to Alzheimer's Disease</t>
@@ -194,19 +194,19 @@
     <t>EPI-D</t>
   </si>
   <si>
+    <t>ICAR</t>
+  </si>
+  <si>
     <t>DEXTRAIN</t>
   </si>
   <si>
-    <t>ICAR</t>
+    <t>PERSONA</t>
+  </si>
+  <si>
+    <t>KETABI</t>
   </si>
   <si>
     <t>ACTRIS</t>
-  </si>
-  <si>
-    <t>PERSONA</t>
-  </si>
-  <si>
-    <t>KETABI</t>
   </si>
   <si>
     <t>ShaTau7</t>
@@ -790,10 +790,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -808,15 +808,15 @@
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -831,7 +831,7 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -854,7 +854,7 @@
         <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -877,7 +877,7 @@
         <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9">

--- a/publipostage2/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
+++ b/publipostage2/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
   <si>
     <t>statut</t>
   </si>
@@ -49,10 +49,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT01964456</t>
@@ -82,21 +82,27 @@
     <t>NCT03934073</t>
   </si>
   <si>
+    <t>NCT02235012</t>
+  </si>
+  <si>
+    <t>NCT02841098</t>
+  </si>
+  <si>
     <t>NCT02476435</t>
   </si>
   <si>
-    <t>NCT02235012</t>
-  </si>
-  <si>
-    <t>NCT02841098</t>
-  </si>
-  <si>
     <t>NCT02576821</t>
   </si>
   <si>
     <t>NCT06658392</t>
   </si>
   <si>
+    <t>2020-001570-30</t>
+  </si>
+  <si>
+    <t>2013-002056-33</t>
+  </si>
+  <si>
     <t>2017-001019-35</t>
   </si>
   <si>
@@ -154,13 +160,13 @@
     <t>Evaluation of the Benefit of the Training of the Manual Dexterity Post-stroke: Effect on the Function and Spontaneous Use of the Hand and the Cerebral Plasticity</t>
   </si>
   <si>
+    <t>Cognitive Biases in Decision Making in a Pharmacological Model of Psychosis : a Study in Healthy Humans Recieving Low Dose Anesthetic, Ketamine Versus Placebo</t>
+  </si>
+  <si>
+    <t>" Endarterectomy Combined With Optimal Medical Therapy Versus Optimal Medical Therapy Alone in Patients With Asymptomatic Severe Atherosclerotic Carotid Artery Stenosis at Higher-than-average Risk of Ipsilateral Stroke "</t>
+  </si>
+  <si>
     <t>Depersonalization Disorder: Therapeutic Effect of Neuronavigated Repetitive Transcranial Stimulation of Right Angular Gyrus.</t>
-  </si>
-  <si>
-    <t>Cognitive Biases in Decision Making in a Pharmacological Model of Psychosis : a Study in Healthy Humans Recieving Low Dose Anesthetic, Ketamine Versus Placebo</t>
-  </si>
-  <si>
-    <t>" Endarterectomy Combined With Optimal Medical Therapy Versus Optimal Medical Therapy Alone in Patients With Asymptomatic Severe Atherosclerotic Carotid Artery Stenosis at Higher-than-average Risk of Ipsilateral Stroke "</t>
   </si>
   <si>
     <t>Hippocampal Sclerosis and Amnesia Not Due to Alzheimer's Disease</t>
@@ -200,13 +206,13 @@
     <t>DEXTRAIN</t>
   </si>
   <si>
+    <t>KETABI</t>
+  </si>
+  <si>
+    <t>ACTRIS</t>
+  </si>
+  <si>
     <t>PERSONA</t>
-  </si>
-  <si>
-    <t>KETABI</t>
-  </si>
-  <si>
-    <t>ACTRIS</t>
   </si>
   <si>
     <t>ShaTau7</t>
@@ -219,22 +225,22 @@
  Epi-D</t>
   </si>
   <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
     <t>BEHAVIORAL</t>
   </si>
   <si>
-    <t>PROCEDURE</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>DEVICE</t>
   </si>
   <si>
-    <t>RADIATION</t>
+    <t>DRUG (presumed)</t>
   </si>
 </sst>
 </file>
@@ -638,16 +644,16 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -661,16 +667,16 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -684,16 +690,16 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -707,13 +713,13 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
         <v>69</v>
@@ -730,13 +736,13 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
         <v>69</v>
@@ -753,13 +759,13 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
         <v>69</v>
@@ -776,16 +782,16 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -798,17 +804,20 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -822,13 +831,13 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
         <v>69</v>
@@ -844,17 +853,20 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -868,16 +880,16 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -891,16 +903,16 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -914,16 +926,16 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -937,13 +949,13 @@
         <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I15" t="s">
         <v>69</v>
@@ -957,13 +969,16 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
